--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="8510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8560"/>
   </bookViews>
   <sheets>
     <sheet name="Sibirev I. V." sheetId="1" r:id="rId1"/>
@@ -19,35 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
   <si>
-    <t>18янв</t>
-  </si>
-  <si>
-    <t>25янв</t>
-  </si>
-  <si>
-    <t>1фев</t>
-  </si>
-  <si>
-    <t>8фев</t>
-  </si>
-  <si>
-    <t>15фев</t>
-  </si>
-  <si>
-    <t>22фев</t>
-  </si>
-  <si>
     <t>Басманов Кирилл</t>
   </si>
   <si>
-    <t>Н</t>
-  </si>
-  <si>
     <t>Бусин Дмитрий</t>
   </si>
   <si>
@@ -124,6 +103,21 @@
   </si>
   <si>
     <t>Якунин Леонид</t>
+  </si>
+  <si>
+    <t>ДЗ_1</t>
+  </si>
+  <si>
+    <t>ДЗ_2</t>
+  </si>
+  <si>
+    <t>ДЗ_3</t>
+  </si>
+  <si>
+    <t>ДЗ_4</t>
+  </si>
+  <si>
+    <t>ДЗ_5</t>
   </si>
 </sst>
 </file>
@@ -501,10 +495,10 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -521,23 +515,21 @@
     </row>
     <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
@@ -552,37 +544,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -590,41 +572,27 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -632,35 +600,27 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -668,19 +628,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -688,19 +642,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -708,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -722,13 +670,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -738,16 +684,12 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
@@ -756,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -770,13 +712,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -786,14 +726,12 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
@@ -802,17 +740,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -820,16 +754,12 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
@@ -838,15 +768,11 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -856,15 +782,11 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -874,12 +796,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -890,15 +810,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -906,15 +824,11 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -924,17 +838,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -942,13 +852,11 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -958,21 +866,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -980,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -994,18 +894,12 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
@@ -1014,7 +908,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1024,24 +918,12 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -495,10 +495,10 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:G2"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -560,8 +560,12 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -617,7 +621,9 @@
         <v>6</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -714,8 +720,12 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -498,7 +498,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -808,7 +808,9 @@
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -892,7 +894,9 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -498,7 +498,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -706,7 +706,9 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -498,7 +498,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -899,7 +899,9 @@
       <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -498,7 +498,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -813,7 +813,9 @@
       <c r="C22" s="2">
         <v>5</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -498,7 +498,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,9 @@
       <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -498,7 +498,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -566,8 +566,12 @@
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
@@ -770,8 +774,12 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -906,8 +914,12 @@
       <c r="D28" s="2">
         <v>5</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -498,7 +498,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -716,8 +716,12 @@
       <c r="D15" s="2">
         <v>5</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -498,7 +498,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -830,8 +830,12 @@
       <c r="D22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>ДЗ_5</t>
+  </si>
+  <si>
+    <t>Сумм</t>
+  </si>
+  <si>
+    <t>результат</t>
   </si>
 </sst>
 </file>
@@ -492,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -508,12 +514,12 @@
     <col min="3" max="8" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -530,8 +536,14 @@
         <v>32</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -539,7 +551,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -552,8 +564,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>SUM(C4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -574,8 +593,15 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" ref="K5:K30" si="0">SUM(C5:G5)</f>
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -588,8 +614,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -602,8 +635,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -616,8 +656,15 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -632,8 +679,15 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -646,22 +700,40 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -674,8 +746,15 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -688,8 +767,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -702,8 +788,15 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -724,8 +817,15 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -738,12 +838,21 @@
       <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -756,8 +865,15 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -770,8 +886,15 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -788,8 +911,15 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -802,8 +932,15 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -816,8 +953,15 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -838,8 +982,15 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -852,8 +1003,15 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -866,8 +1024,15 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -880,8 +1045,15 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -894,8 +1066,15 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -908,8 +1087,15 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -930,8 +1116,15 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -944,8 +1137,15 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -958,8 +1158,15 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -969,6 +1176,18 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="K4:K30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -148,12 +148,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -183,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -193,6 +199,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -558,10 +567,18 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="K4">
@@ -579,16 +596,16 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
         <v>5</v>
       </c>
       <c r="G5" s="2"/>
@@ -608,10 +625,18 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="K6">
@@ -629,10 +654,18 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="K7">
@@ -650,10 +683,18 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="K8">
@@ -671,12 +712,18 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="K9">
@@ -694,10 +741,18 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="K10">
@@ -715,14 +770,18 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="K11">
@@ -740,10 +799,18 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="K12">
@@ -761,10 +828,18 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="K13">
@@ -782,10 +857,18 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="K14">
@@ -803,16 +886,16 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
         <v>5</v>
       </c>
       <c r="G15" s="2"/>
@@ -832,16 +915,18 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="K16">
@@ -859,10 +944,18 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="K17">
@@ -880,10 +973,18 @@
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="K18">
@@ -901,14 +1002,18 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="K19">
@@ -926,10 +1031,18 @@
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="K20">
@@ -947,10 +1060,18 @@
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="K21">
@@ -968,16 +1089,16 @@
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="2"/>
@@ -997,10 +1118,18 @@
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="K23">
@@ -1018,10 +1147,18 @@
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="K24">
@@ -1039,10 +1176,18 @@
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="K25">
@@ -1060,10 +1205,18 @@
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="K26">
@@ -1081,10 +1234,18 @@
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="K27">
@@ -1102,16 +1263,16 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4">
         <v>5</v>
       </c>
       <c r="G28" s="2"/>
@@ -1131,10 +1292,18 @@
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="K29">
@@ -1152,10 +1321,18 @@
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="K30">

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -776,8 +776,8 @@
       <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
+      <c r="E11" s="2">
+        <v>5</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -786,7 +786,7 @@
       <c r="H11" s="2"/>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -828,23 +828,23 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -712,14 +712,14 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
+      <c r="C9" s="2">
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
+      <c r="E9" s="2">
+        <v>5</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -728,7 +728,7 @@
       <c r="H9" s="2"/>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -1060,11 +1060,11 @@
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -1076,7 +1076,7 @@
       <c r="H21" s="2"/>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -510,10 +510,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -654,14 +654,14 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -670,7 +670,7 @@
       <c r="H7" s="2"/>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -924,14 +924,16 @@
       <c r="E16" s="4">
         <v>5</v>
       </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L16">
         <v>5</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -779,14 +779,14 @@
       <c r="E11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
+      <c r="F11" s="2">
+        <v>5</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <v>4</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1068,8 +1068,8 @@
       <c r="D21" s="2">
         <v>5</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
+      <c r="E21" s="2">
+        <v>5</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -1078,7 +1078,7 @@
       <c r="H21" s="2"/>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L21">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1010,8 +1010,8 @@
       <c r="D19" s="4">
         <v>5</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
+      <c r="E19" s="2">
+        <v>5</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -1020,7 +1020,7 @@
       <c r="H19" s="2"/>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L19">
         <v>4</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -721,14 +721,14 @@
       <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
+      <c r="F9" s="2">
+        <v>5</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L9">
         <v>4</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -724,11 +724,13 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -1178,11 +1180,11 @@
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -1194,7 +1196,7 @@
       <c r="H25" s="2"/>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -568,22 +568,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="K4">
         <f>SUM(C4:G4)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -664,13 +664,13 @@
         <v>5</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -684,22 +684,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -744,22 +744,22 @@
         <v>7</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -860,22 +860,22 @@
         <v>11</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -949,22 +949,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L17">
         <v>3</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -1016,13 +1016,13 @@
         <v>5</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L19">
         <v>4</v>
@@ -1035,23 +1035,23 @@
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
+      <c r="C20" s="2">
+        <v>5</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L20">
         <v>3</v>
@@ -1074,13 +1074,13 @@
         <v>5</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L21">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>20</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L23">
         <v>3</v>
@@ -1152,22 +1152,22 @@
         <v>21</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L24">
         <v>3</v>
@@ -1187,16 +1187,16 @@
         <v>5</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -1210,22 +1210,22 @@
         <v>23</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -1239,22 +1239,22 @@
         <v>24</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -1297,22 +1297,22 @@
         <v>26</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -1326,22 +1326,22 @@
         <v>27</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L30">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -784,11 +784,15 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -1015,14 +1019,14 @@
       <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="F19" s="4">
-        <v>2</v>
+      <c r="F19" s="2">
+        <v>5</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <v>4</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11:H11"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -663,14 +663,14 @@
       <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="4">
-        <v>2</v>
+      <c r="F7" s="2">
+        <v>5</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L7">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>результат</t>
+  </si>
+  <si>
+    <t>лаб</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,11 +188,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -201,6 +215,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,7 +530,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -528,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -544,7 +561,9 @@
       <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K2" t="s">
         <v>33</v>
       </c>
@@ -552,7 +571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -610,6 +629,9 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
       <c r="K5">
         <f t="shared" ref="K5:K30" si="0">SUM(C5:G5)</f>
         <v>20</v>
@@ -626,22 +648,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -846,11 +868,15 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -952,23 +978,23 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
         <v>2</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L17">
         <v>3</v>
@@ -1077,14 +1103,14 @@
       <c r="E21" s="2">
         <v>5</v>
       </c>
-      <c r="F21" s="4">
-        <v>2</v>
+      <c r="F21" s="2">
+        <v>5</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L21">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -530,7 +530,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1181,23 +1181,23 @@
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2</v>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -530,7 +530,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -561,8 +561,14 @@
       <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
       </c>
       <c r="K2" t="s">
         <v>33</v>
@@ -579,7 +585,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -608,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -627,20 +633,27 @@
       <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
       <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
         <v>5</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K30" si="0">SUM(C5:G5)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1068,11 +1081,11 @@
       <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -1081,7 +1094,7 @@
       <c r="H20" s="2"/>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L20">
         <v>3</v>
@@ -1216,17 +1229,17 @@
       <c r="D25" s="2">
         <v>5</v>
       </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -1309,11 +1322,18 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
       <c r="K28">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(C28:H28)</f>
+        <v>30</v>
       </c>
       <c r="L28">
         <v>5</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -530,7 +530,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1148,11 +1148,15 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L22">
         <v>5</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -530,7 +530,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -672,11 +672,18 @@
       <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(C6:H6)</f>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -778,23 +785,25 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -924,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -943,17 +952,24 @@
       <c r="F15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
       <c r="K15">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(C15:H15)</f>
+        <v>30</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -975,7 +991,15 @@
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
       <c r="K16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -984,7 +1008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1087,14 +1111,14 @@
       <c r="E20" s="2">
         <v>5</v>
       </c>
-      <c r="F20" s="4">
-        <v>2</v>
+      <c r="F20" s="2">
+        <v>5</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L20">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -527,10 +527,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1176,6 +1176,9 @@
         <v>5</v>
       </c>
       <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="J22">
         <v>5</v>
       </c>
       <c r="K22">

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -530,7 +530,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1085,11 +1085,15 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
       <c r="K19">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(C19:H19)</f>
+        <v>30</v>
       </c>
       <c r="L19">
         <v>4</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -165,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,11 +199,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -218,6 +227,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -530,7 +542,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -800,10 +812,15 @@
       <c r="G10" s="2">
         <v>5</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5</v>
+      </c>
       <c r="K10">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>SUM(C10:H10)</f>
+        <v>30</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -832,6 +849,9 @@
         <v>5</v>
       </c>
       <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6">
         <v>5</v>
       </c>
       <c r="K11">

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>лаб</t>
+  </si>
+  <si>
+    <t>МЫШАКОВ!!!</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -230,6 +233,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -536,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1452,14 +1458,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+    <row r="31" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
       <c r="H31" s="3"/>
     </row>
+    <row r="32" spans="1:12" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="K4:K30">

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>МЫШАКОВ!!!</t>
+  </si>
+  <si>
+    <t>четверку очень нада</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,6 +239,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -558,12 +564,12 @@
     <col min="3" max="8" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -595,7 +601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -603,36 +609,47 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8">
+        <v>3</v>
+      </c>
       <c r="K4">
-        <f>SUM(C4:G4)</f>
-        <v>8</v>
+        <f>SUM(C4:J4)</f>
+        <v>22</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -671,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -707,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -736,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -765,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -796,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -832,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -868,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -897,7 +914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -930,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -959,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -995,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -554,7 +554,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -892,23 +892,27 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
       <c r="K12">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(C12:H12)</f>
+        <v>30</v>
       </c>
       <c r="L12">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -554,7 +554,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -804,10 +804,12 @@
       <c r="G9" s="2">
         <v>5</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>SUM(C9:H9)</f>
+        <v>30</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -1165,11 +1167,19 @@
       <c r="F20" s="2">
         <v>5</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8">
+        <v>5</v>
+      </c>
       <c r="K20">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(C20:J20)</f>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -149,11 +149,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -218,16 +213,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -551,10 +543,10 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -634,8 +626,8 @@
       <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7">
         <v>3</v>
       </c>
       <c r="K4">
@@ -656,16 +648,16 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
         <v>5</v>
       </c>
       <c r="G5" s="2">
@@ -674,7 +666,7 @@
       <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>5</v>
       </c>
       <c r="J5" s="2">
@@ -695,16 +687,16 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
         <v>5</v>
       </c>
       <c r="G6" s="2">
@@ -760,16 +752,16 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
         <v>2</v>
       </c>
       <c r="G8" s="2"/>
@@ -792,7 +784,7 @@
       <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
       <c r="E9" s="2">
@@ -840,7 +832,7 @@
       <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>5</v>
       </c>
       <c r="K10">
@@ -858,10 +850,10 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
         <v>5</v>
       </c>
       <c r="E11" s="2">
@@ -876,7 +868,7 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>5</v>
       </c>
       <c r="K11">
@@ -960,16 +952,16 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
         <v>2</v>
       </c>
       <c r="G14" s="2"/>
@@ -989,16 +981,16 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
         <v>5</v>
       </c>
       <c r="G15" s="2">
@@ -1025,13 +1017,13 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
         <v>5</v>
       </c>
       <c r="F16" s="2">
@@ -1093,16 +1085,16 @@
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
       </c>
       <c r="G18" s="2"/>
@@ -1122,10 +1114,10 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
         <v>5</v>
       </c>
       <c r="E19" s="2">
@@ -1173,8 +1165,8 @@
       <c r="H20" s="2">
         <v>5</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7">
         <v>5</v>
       </c>
       <c r="K20">
@@ -1221,16 +1213,16 @@
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>5</v>
       </c>
       <c r="G22" s="2">
@@ -1257,16 +1249,16 @@
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
         <v>2</v>
       </c>
       <c r="G23" s="2"/>
@@ -1344,16 +1336,16 @@
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
         <v>2</v>
       </c>
       <c r="G26" s="2"/>
@@ -1373,16 +1365,16 @@
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
         <v>2</v>
       </c>
       <c r="G27" s="2"/>
@@ -1402,16 +1394,16 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4">
-        <v>5</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
         <v>5</v>
       </c>
       <c r="G28" s="2">
@@ -1438,16 +1430,16 @@
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
         <v>2</v>
       </c>
       <c r="G29" s="2"/>
@@ -1467,16 +1459,16 @@
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
         <v>2</v>
       </c>
       <c r="G30" s="2"/>
@@ -1490,7 +1482,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="2">
@@ -1508,7 +1500,13 @@
       <c r="G31" s="2">
         <v>5</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -543,10 +543,10 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -735,11 +735,18 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(C7:H7)</f>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>3</v>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -234,6 +234,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,7 +549,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -804,6 +807,9 @@
         <v>5</v>
       </c>
       <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
         <v>5</v>
       </c>
       <c r="K9">

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>ДЗ_5</t>
-  </si>
-  <si>
-    <t>Сумм</t>
-  </si>
-  <si>
-    <t>результат</t>
   </si>
   <si>
     <t>лаб</t>
@@ -546,10 +540,10 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -584,16 +578,10 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2">
         <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -633,15 +621,8 @@
       <c r="J4" s="7">
         <v>3</v>
       </c>
-      <c r="K4">
-        <f>SUM(C4:J4)</f>
-        <v>22</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -673,13 +654,6 @@
         <v>5</v>
       </c>
       <c r="J5" s="2">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K30" si="0">SUM(C5:G5)</f>
-        <v>25</v>
-      </c>
-      <c r="L5">
         <v>5</v>
       </c>
     </row>
@@ -711,13 +685,6 @@
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6">
-        <f>SUM(C6:H6)</f>
-        <v>30</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -747,13 +714,6 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
-      <c r="K7">
-        <f>SUM(C7:H7)</f>
-        <v>30</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -776,13 +736,6 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -812,13 +765,6 @@
       <c r="J9" s="8">
         <v>5</v>
       </c>
-      <c r="K9">
-        <f>SUM(C9:H9)</f>
-        <v>30</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
     </row>
     <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -848,13 +794,6 @@
       <c r="J10" s="5">
         <v>5</v>
       </c>
-      <c r="K10">
-        <f>SUM(C10:H10)</f>
-        <v>30</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -884,13 +823,6 @@
       <c r="J11" s="5">
         <v>5</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -917,13 +849,6 @@
       <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="K12">
-        <f>SUM(C12:H12)</f>
-        <v>30</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -950,13 +875,6 @@
       <c r="H13" s="2">
         <v>5</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
     </row>
     <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -979,13 +897,6 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1015,13 +926,6 @@
       <c r="J15">
         <v>5</v>
       </c>
-      <c r="K15">
-        <f>SUM(C15:H15)</f>
-        <v>30</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
     </row>
     <row r="16" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1054,15 +958,8 @@
       <c r="J16" s="2">
         <v>5</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="L16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1083,44 +980,41 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1145,15 +1039,8 @@
       <c r="H19" s="2">
         <v>5</v>
       </c>
-      <c r="K19">
-        <f>SUM(C19:H19)</f>
-        <v>30</v>
-      </c>
-      <c r="L19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1182,15 +1069,8 @@
       <c r="J20" s="7">
         <v>5</v>
       </c>
-      <c r="K20">
-        <f>SUM(C20:J20)</f>
-        <v>35</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1211,15 +1091,8 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1247,15 +1120,8 @@
       <c r="J22">
         <v>5</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="L22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1276,15 +1142,8 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1305,15 +1164,8 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1334,15 +1186,8 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1363,15 +1208,8 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1392,15 +1230,8 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1428,15 +1259,8 @@
       <c r="J28">
         <v>5</v>
       </c>
-      <c r="K28">
-        <f>SUM(C28:H28)</f>
-        <v>30</v>
-      </c>
-      <c r="L28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1457,46 +1281,23 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
@@ -1521,10 +1322,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:14" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="K4:K30">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -540,10 +540,10 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30:J30"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1089,10 +1089,17 @@
       <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1117,33 +1124,37 @@
       <c r="H22" s="2">
         <v>5</v>
       </c>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
       <c r="J22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="J23" s="8">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1326,6 +1337,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="K4:K30">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1337,7 +1360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -543,7 +543,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1173,8 +1173,16 @@
       <c r="F24" s="2">
         <v>5</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>четверку очень нада</t>
+  </si>
+  <si>
+    <t>тройку очень нада</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -686,7 +689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -715,29 +718,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1151,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1345,6 +1343,30 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="K4:K30">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1356,7 +1378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="D8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1368,7 +1390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -546,7 +546,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -921,6 +921,9 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
       <c r="J15">
         <v>5</v>
       </c>
@@ -1271,6 +1274,9 @@
         <v>5</v>
       </c>
       <c r="H28" s="2">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4">
         <v>5</v>
       </c>
       <c r="J28">

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>тройку очень нада</t>
+  </si>
+  <si>
+    <t>xtndthre jxtym</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -725,6 +728,18 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
@@ -733,6 +748,9 @@
       </c>
       <c r="J8" s="8">
         <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -549,7 +549,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -591,9 +591,15 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -911,8 +917,12 @@
       <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -997,8 +1007,12 @@
       <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1059,12 +1073,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -1084,17 +1098,17 @@
       <c r="H20" s="2">
         <v>5</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
@@ -1114,7 +1128,8 @@
       <c r="H21" s="2">
         <v>5</v>
       </c>
-      <c r="J21" s="5">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1123,18 +1138,18 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" s="2">
@@ -1143,10 +1158,7 @@
       <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="I22" s="4">
-        <v>5</v>
-      </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1155,9 +1167,18 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="7">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="2">
@@ -1166,11 +1187,11 @@
       <c r="H23" s="2">
         <v>5</v>
       </c>
-      <c r="J23" s="8">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>36</v>
+      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1178,18 +1199,18 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
         <v>5</v>
       </c>
       <c r="G24" s="2">
@@ -1198,17 +1219,19 @@
       <c r="H24" s="2">
         <v>5</v>
       </c>
-      <c r="I24" s="7"/>
       <c r="J24" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
@@ -1222,37 +1245,49 @@
       <c r="F25" s="2">
         <v>5</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -1266,39 +1301,37 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2">
-        <v>5</v>
-      </c>
-      <c r="I28" s="4">
-        <v>5</v>
-      </c>
-      <c r="J28">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1306,79 +1339,95 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="N30" t="s">
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2">
-        <v>5</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="K4:K30">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1390,7 +1439,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1426,6 +1475,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K19 K21:K31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -546,10 +546,10 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -583,11 +583,11 @@
       <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -600,7 +600,9 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -629,9 +631,11 @@
       <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
       <c r="J4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>35</v>
@@ -662,10 +666,10 @@
       <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" s="4">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4">
         <v>5</v>
       </c>
     </row>
@@ -694,8 +698,11 @@
       <c r="H6" s="2">
         <v>5</v>
       </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
       <c r="J6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -723,8 +730,11 @@
       <c r="H7" s="2">
         <v>5</v>
       </c>
+      <c r="I7" s="5">
+        <v>5</v>
+      </c>
       <c r="J7" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -752,8 +762,11 @@
       <c r="H8" s="2">
         <v>5</v>
       </c>
+      <c r="I8" s="8">
+        <v>5</v>
+      </c>
       <c r="J8" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
         <v>37</v>
@@ -784,11 +797,14 @@
       <c r="H9" s="2">
         <v>5</v>
       </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
       <c r="J9" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -813,11 +829,14 @@
       <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -842,11 +861,14 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="J11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -871,8 +893,14 @@
       <c r="H12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -897,8 +925,14 @@
       <c r="H13" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -921,6 +955,12 @@
         <v>2</v>
       </c>
       <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8">
         <v>2</v>
       </c>
     </row>
@@ -949,10 +989,10 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15">
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1013,6 +1053,12 @@
       <c r="H17" s="2">
         <v>2</v>
       </c>
+      <c r="I17" s="5">
+        <v>2</v>
+      </c>
+      <c r="J17" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1039,9 +1085,11 @@
       <c r="H18" s="2">
         <v>5</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>5</v>
+      </c>
       <c r="J18" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
         <v>35</v>
@@ -1072,6 +1120,12 @@
       <c r="H19" s="2">
         <v>5</v>
       </c>
+      <c r="I19" s="5">
+        <v>2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1098,9 +1152,11 @@
       <c r="H20" s="2">
         <v>5</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
       <c r="J20" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1128,9 +1184,11 @@
       <c r="H21" s="2">
         <v>5</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="7">
+        <v>5</v>
+      </c>
       <c r="J21" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1158,8 +1216,11 @@
       <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="5">
-        <v>5</v>
+      <c r="I22" s="5">
+        <v>5</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1187,10 +1248,10 @@
       <c r="H23" s="2">
         <v>5</v>
       </c>
-      <c r="I23" s="4">
-        <v>5</v>
-      </c>
-      <c r="J23">
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1219,8 +1280,11 @@
       <c r="H24" s="2">
         <v>5</v>
       </c>
+      <c r="I24" s="8">
+        <v>5</v>
+      </c>
       <c r="J24" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -1251,9 +1315,11 @@
       <c r="H25" s="2">
         <v>5</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8">
-        <v>5</v>
+      <c r="I25" s="8">
+        <v>5</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1281,6 +1347,12 @@
       <c r="H26" s="2">
         <v>2</v>
       </c>
+      <c r="I26" s="8">
+        <v>2</v>
+      </c>
+      <c r="J26" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1307,6 +1379,12 @@
       <c r="H27" s="2">
         <v>2</v>
       </c>
+      <c r="I27" s="8">
+        <v>2</v>
+      </c>
+      <c r="J27" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1333,6 +1411,12 @@
       <c r="H28" s="2">
         <v>2</v>
       </c>
+      <c r="I28" s="8">
+        <v>2</v>
+      </c>
+      <c r="J28" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1359,10 +1443,10 @@
       <c r="H29" s="2">
         <v>5</v>
       </c>
-      <c r="I29" s="4">
-        <v>5</v>
-      </c>
-      <c r="J29">
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1389,6 +1473,12 @@
         <v>2</v>
       </c>
       <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="8">
+        <v>2</v>
+      </c>
+      <c r="J30" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1475,18 +1565,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K19 K21:K31">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -546,10 +546,10 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -603,8 +603,18 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>xtndthre jxtym</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>ДЗ_6</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,12 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -227,16 +233,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,7 +550,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -580,14 +581,17 @@
       <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2">
-        <v>6</v>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I2">
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -609,10 +613,10 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -623,29 +627,36 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>3</v>
       </c>
-      <c r="J4" s="7">
-        <v>2</v>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>SUM(C4:J4)</f>
+        <v>22</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>35</v>
@@ -670,16 +681,23 @@
       <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
         <v>5</v>
       </c>
       <c r="J5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L31" si="0">SUM(C5:J5)</f>
+        <v>40</v>
+      </c>
+      <c r="M5" s="7">
         <v>5</v>
       </c>
     </row>
@@ -702,17 +720,24 @@
       <c r="F6" s="3">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -722,29 +747,36 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="5">
-        <v>5</v>
-      </c>
-      <c r="J7" s="5">
-        <v>2</v>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M7" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -754,29 +786,36 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="8">
-        <v>5</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2</v>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4</v>
       </c>
       <c r="N8" t="s">
         <v>37</v>
@@ -789,29 +828,36 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="8">
-        <v>5</v>
-      </c>
-      <c r="J9" s="8">
-        <v>2</v>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M9" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -821,29 +867,36 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>5</v>
-      </c>
-      <c r="J10" s="8">
-        <v>2</v>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -859,23 +912,30 @@
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5</v>
-      </c>
-      <c r="J11" s="8">
-        <v>2</v>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -885,29 +945,36 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2</v>
-      </c>
-      <c r="J12" s="8">
-        <v>2</v>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -917,29 +984,36 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="8">
-        <v>2</v>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -950,28 +1024,35 @@
         <v>11</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="5">
-        <v>2</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -993,16 +1074,23 @@
       <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
         <v>5</v>
       </c>
       <c r="J15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M15">
         <v>5</v>
       </c>
     </row>
@@ -1022,19 +1110,26 @@
       <c r="E16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>5</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M16" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1045,29 +1140,36 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2</v>
-      </c>
-      <c r="I17" s="5">
-        <v>2</v>
-      </c>
-      <c r="J17" s="8">
-        <v>2</v>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1086,20 +1188,27 @@
       <c r="E18" s="4">
         <v>5</v>
       </c>
-      <c r="F18" s="7">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5</v>
-      </c>
-      <c r="J18" s="7">
-        <v>2</v>
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4</v>
       </c>
       <c r="N18" t="s">
         <v>35</v>
@@ -1118,55 +1227,69 @@
       <c r="D19" s="3">
         <v>5</v>
       </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5">
-        <v>2</v>
-      </c>
-      <c r="J19" s="8">
-        <v>2</v>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M19" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5</v>
-      </c>
-      <c r="J20" s="2">
-        <v>2</v>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M20" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1176,29 +1299,36 @@
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="7">
-        <v>5</v>
-      </c>
-      <c r="J21" s="7">
-        <v>2</v>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M21" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1208,29 +1338,36 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="5">
-        <v>5</v>
-      </c>
-      <c r="J22" s="8">
-        <v>2</v>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1252,16 +1389,23 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23">
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5">
         <v>5</v>
       </c>
       <c r="J23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M23">
         <v>5</v>
       </c>
     </row>
@@ -1273,28 +1417,35 @@
         <v>20</v>
       </c>
       <c r="C24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="8">
-        <v>5</v>
-      </c>
-      <c r="J24" s="8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -1307,29 +1458,36 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5</v>
-      </c>
-      <c r="I25" s="8">
-        <v>5</v>
-      </c>
-      <c r="J25" s="7">
-        <v>2</v>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1339,29 +1497,36 @@
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>5</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2</v>
-      </c>
-      <c r="I26" s="8">
-        <v>2</v>
-      </c>
-      <c r="J26" s="8">
-        <v>2</v>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1372,28 +1537,35 @@
         <v>23</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2</v>
-      </c>
-      <c r="H27" s="2">
-        <v>2</v>
-      </c>
-      <c r="I27" s="8">
-        <v>2</v>
-      </c>
-      <c r="J27" s="8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1404,28 +1576,35 @@
         <v>24</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2">
-        <v>2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2</v>
-      </c>
-      <c r="I28" s="8">
-        <v>2</v>
-      </c>
-      <c r="J28" s="8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1447,16 +1626,23 @@
       <c r="F29" s="3">
         <v>5</v>
       </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2">
-        <v>5</v>
-      </c>
-      <c r="I29">
+      <c r="G29" s="3">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5">
         <v>5</v>
       </c>
       <c r="J29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M29" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1468,28 +1654,35 @@
         <v>26</v>
       </c>
       <c r="C30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="G30" s="2">
-        <v>2</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2</v>
-      </c>
-      <c r="I30" s="8">
-        <v>2</v>
-      </c>
-      <c r="J30" s="8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1497,28 +1690,35 @@
         <v>27</v>
       </c>
       <c r="C31" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>2</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
       </c>
       <c r="N31" t="s">
         <v>35</v>
@@ -1527,19 +1727,7 @@
     <row r="32" spans="1:14" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="C4:J31">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1551,7 +1739,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="L4:L31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1563,7 +1751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="M4:M31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>ДЗ_6</t>
+  </si>
+  <si>
+    <t>ыы=</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1686,6 +1689,9 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>2ИСИП-222: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>ДЗ_6</t>
+  </si>
+  <si>
+    <t>ТК_оригинал</t>
+  </si>
+  <si>
+    <t>на момент выгрузки в элжуре</t>
   </si>
 </sst>
 </file>
@@ -554,13 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -570,12 +576,12 @@
     <col min="3" max="8" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -603,8 +609,14 @@
       <c r="L2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -630,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -668,8 +680,15 @@
       <c r="M4" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <f>O4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -707,8 +726,15 @@
       <c r="M5" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P31" si="1">O5-M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -746,8 +772,15 @@
       <c r="M6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -785,8 +818,15 @@
       <c r="M7" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -824,8 +864,15 @@
       <c r="M8" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -863,8 +910,15 @@
       <c r="M9" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -902,8 +956,15 @@
       <c r="M10" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -941,8 +1002,15 @@
       <c r="M11" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -980,8 +1048,15 @@
       <c r="M12" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1019,8 +1094,15 @@
       <c r="M13" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1058,8 +1140,15 @@
       <c r="M14" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1097,8 +1186,15 @@
       <c r="M15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1136,8 +1232,15 @@
       <c r="M16" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1175,8 +1278,15 @@
       <c r="M17" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1214,8 +1324,15 @@
       <c r="M18" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1253,8 +1370,15 @@
       <c r="M19" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" s="11" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="11" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -1292,8 +1416,15 @@
       <c r="M20" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="11">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1331,8 +1462,15 @@
       <c r="M21" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1370,8 +1508,15 @@
       <c r="M22" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1409,8 +1554,15 @@
       <c r="M23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1448,8 +1600,15 @@
       <c r="M24" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1487,8 +1646,15 @@
       <c r="M25" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1526,8 +1692,15 @@
       <c r="M26" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1565,8 +1738,15 @@
       <c r="M27" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1605,8 +1785,15 @@
       <c r="M28" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1644,8 +1831,15 @@
       <c r="M29" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1683,8 +1877,15 @@
       <c r="M30" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -1722,591 +1923,208 @@
       <c r="M31" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2</v>
-      </c>
-      <c r="J32" s="7">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <f t="shared" ref="L32" si="1">SUM(C32:J32)</f>
-        <v>16</v>
-      </c>
-      <c r="M32" s="7">
+      <c r="O31">
         <v>3</v>
       </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>28</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2</v>
-      </c>
-      <c r="J33" s="7">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" ref="L33:L34" si="2">SUM(C33:J33)</f>
-        <v>16</v>
-      </c>
-      <c r="M33" s="7">
-        <v>3</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>28</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
-      <c r="G34" s="3">
-        <v>2</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2</v>
-      </c>
-      <c r="I34" s="7">
-        <v>2</v>
-      </c>
-      <c r="J34" s="7">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="M34" s="7">
-        <v>3</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-      <c r="I35" s="7">
-        <v>2</v>
-      </c>
-      <c r="J35" s="7">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <f t="shared" ref="L35:L42" si="3">SUM(C35:J35)</f>
-        <v>16</v>
-      </c>
-      <c r="M35" s="7">
-        <v>3</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>28</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2</v>
-      </c>
-      <c r="G36" s="3">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3">
-        <v>2</v>
-      </c>
-      <c r="I36" s="7">
-        <v>2</v>
-      </c>
-      <c r="J36" s="7">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="M36" s="7">
-        <v>3</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>28</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3">
-        <v>2</v>
-      </c>
-      <c r="H37" s="3">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2</v>
-      </c>
-      <c r="J37" s="7">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="M37" s="7">
-        <v>3</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>28</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
-      <c r="G38" s="3">
-        <v>2</v>
-      </c>
-      <c r="H38" s="3">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7">
-        <v>2</v>
-      </c>
-      <c r="J38" s="7">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>28</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3">
-        <v>2</v>
-      </c>
-      <c r="G39" s="3">
-        <v>2</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2</v>
-      </c>
-      <c r="I39" s="7">
-        <v>2</v>
-      </c>
-      <c r="J39" s="7">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>28</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2</v>
-      </c>
-      <c r="G40" s="3">
-        <v>2</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="7">
-        <v>2</v>
-      </c>
-      <c r="J40" s="7">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="M40" s="7">
-        <v>3</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>28</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2</v>
-      </c>
-      <c r="I41" s="7">
-        <v>2</v>
-      </c>
-      <c r="J41" s="7">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="M41" s="7">
-        <v>3</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>28</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2</v>
-      </c>
-      <c r="H42" s="3">
-        <v>2</v>
-      </c>
-      <c r="I42" s="7">
-        <v>2</v>
-      </c>
-      <c r="J42" s="7">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="M42" s="7">
-        <v>3</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="M42" s="7"/>
     </row>
     <row r="43" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>28</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2</v>
-      </c>
-      <c r="I43" s="7">
-        <v>2</v>
-      </c>
-      <c r="J43" s="7">
-        <v>2</v>
-      </c>
-      <c r="L43">
-        <f t="shared" ref="L43:L46" si="4">SUM(C43:J43)</f>
-        <v>16</v>
-      </c>
-      <c r="M43" s="7">
-        <v>3</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="M43" s="7"/>
     </row>
     <row r="44" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>28</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2</v>
-      </c>
-      <c r="I44" s="7">
-        <v>2</v>
-      </c>
-      <c r="J44" s="7">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="M44" s="7">
-        <v>3</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>28</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2</v>
-      </c>
-      <c r="I45" s="7">
-        <v>2</v>
-      </c>
-      <c r="J45" s="7">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="M45" s="7">
-        <v>3</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>28</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2</v>
-      </c>
-      <c r="I46" s="7">
-        <v>2</v>
-      </c>
-      <c r="J46" s="7">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="M46" s="7">
-        <v>3</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/_2ИСИП-222_ТерВер.xlsx
+++ b/_2ИСИП-222_ТерВер.xlsx
@@ -563,10 +563,10 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -617,30 +617,14 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
